--- a/2020_Fall/20200819_Analytics with Excel_1/Analytics with Excel - Part I.xlsx
+++ b/2020_Fall/20200819_Analytics with Excel_1/Analytics with Excel - Part I.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drew.howell\Desktop\School\20200819_Analytics with Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drew.howell\Desktop\CSC-201\2020_Fall\20200819_Analytics with Excel_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CB036A8-0346-42CC-8BC4-893A753A0B53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520F708C-C5E5-45A1-9041-3C2AAC98A3B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-960" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rpt. 2650012" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Rpt. 2650012'!#REF!</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Rpt. 2650012'!#REF!</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Rpt. 2650012'!#REF!</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Rpt. 2650012'!#REF!</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Rpt. 2650012'!$S$19:$S$32</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Rpt. 2650012'!$T$18</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Rpt. 2650012'!$T$19:$T$32</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -39,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Jim</t>
   </si>
@@ -101,9 +110,6 @@
     <t>Report:</t>
   </si>
   <si>
-    <t>Emplyee Spending</t>
-  </si>
-  <si>
     <t>Creed</t>
   </si>
   <si>
@@ -189,6 +195,27 @@
   </si>
   <si>
     <t>Productive (7 or greater) Y/N</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Total ($)</t>
+  </si>
+  <si>
+    <t>Average ($)</t>
+  </si>
+  <si>
+    <t>Total (% of all spending)</t>
+  </si>
+  <si>
+    <t>Average (% of all spending)</t>
+  </si>
+  <si>
+    <t>Productivity vs. Spending</t>
+  </si>
+  <si>
+    <t>Emplyee Average Spending</t>
   </si>
 </sst>
 </file>
@@ -685,15 +712,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -716,6 +734,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1087,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:P41"/>
+  <dimension ref="A2:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,86 +1129,92 @@
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
     <col min="6" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="1" customWidth="1"/>
-    <col min="12" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="31.7109375" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" customWidth="1"/>
-    <col min="19" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="10.140625" customWidth="1"/>
+    <col min="12" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="31.7109375" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" customWidth="1"/>
+    <col min="21" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="84" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
     </row>
-    <row r="4" spans="1:15" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
     </row>
-    <row r="6" spans="1:15" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:17" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="33">
+        <v>43983</v>
+      </c>
+      <c r="G6" s="33">
+        <v>43990</v>
+      </c>
+      <c r="H6" s="33">
+        <v>43997</v>
+      </c>
+      <c r="I6" s="33">
+        <v>44004</v>
+      </c>
+      <c r="J6" s="34">
+        <v>44011</v>
+      </c>
+      <c r="K6" s="35"/>
+      <c r="L6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="36">
-        <v>43983</v>
-      </c>
-      <c r="G6" s="36">
-        <v>43990</v>
-      </c>
-      <c r="H6" s="36">
-        <v>43997</v>
-      </c>
-      <c r="I6" s="36">
-        <v>44004</v>
-      </c>
-      <c r="J6" s="37">
-        <v>44011</v>
-      </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>31</v>
-      </c>
       <c r="D7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="14">
         <v>27.13</v>
@@ -1201,21 +1234,23 @@
       <c r="K7" s="17"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="20">
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="20">
         <v>8</v>
       </c>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="29">
         <v>2020</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>0</v>
@@ -1238,12 +1273,14 @@
       <c r="K8" s="17"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="20">
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="20">
         <v>7</v>
       </c>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>16</v>
       </c>
@@ -1252,7 +1289,7 @@
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>1</v>
@@ -1275,12 +1312,14 @@
       <c r="K9" s="17"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="20">
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="20">
         <v>1</v>
       </c>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>17</v>
       </c>
@@ -1288,7 +1327,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>2</v>
@@ -1311,12 +1350,14 @@
       <c r="K10" s="17"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="20">
-        <v>9</v>
-      </c>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="20">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>14</v>
       </c>
@@ -1324,7 +1365,7 @@
         <v>128</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>3</v>
@@ -1347,20 +1388,22 @@
       <c r="K11" s="17"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="20">
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="20">
         <v>6</v>
       </c>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>34</v>
-      </c>
       <c r="D12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>4</v>
@@ -1371,8 +1414,8 @@
       <c r="G12" s="12">
         <v>21.65</v>
       </c>
-      <c r="H12" s="12">
-        <v>15.08</v>
+      <c r="H12" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="I12" s="12">
         <v>21.71</v>
@@ -1383,14 +1426,16 @@
       <c r="K12" s="17"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="20">
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="20">
         <v>4</v>
       </c>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>5</v>
@@ -1413,14 +1458,16 @@
       <c r="K13" s="17"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="20">
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="20">
         <v>2</v>
       </c>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>6</v>
@@ -1443,17 +1490,19 @@
       <c r="K14" s="17"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="20">
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="20">
         <v>5</v>
       </c>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="F15" s="11">
         <v>25.41</v>
@@ -1473,17 +1522,19 @@
       <c r="K15" s="17"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="20">
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="20">
         <v>5</v>
       </c>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="F16" s="11">
         <v>18.12</v>
@@ -1503,17 +1554,19 @@
       <c r="K16" s="17"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="20">
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="20">
         <v>7</v>
       </c>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" s="11">
         <v>7.82</v>
@@ -1533,14 +1586,16 @@
       <c r="K17" s="17"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="20">
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="20">
         <v>8</v>
       </c>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>7</v>
@@ -1563,17 +1618,19 @@
       <c r="K18" s="17"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="20">
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="20">
         <v>6</v>
       </c>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D19" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" s="22">
         <v>6.23</v>
@@ -1593,14 +1650,16 @@
       <c r="K19" s="17"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="20">
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="20">
         <v>3</v>
       </c>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D20" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>8</v>
@@ -1623,17 +1682,19 @@
       <c r="K20" s="17"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="20">
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="20">
         <v>9</v>
       </c>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="2:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="32"/>
+      <c r="E21" s="41"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1641,13 +1702,14 @@
       <c r="J21" s="2"/>
       <c r="K21" s="18"/>
       <c r="L21" s="19"/>
-    </row>
-    <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M21" s="19"/>
+    </row>
+    <row r="22" spans="2:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="19"/>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="32"/>
+      <c r="E22" s="41"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1655,11 +1717,12 @@
       <c r="J22" s="2"/>
       <c r="K22" s="18"/>
       <c r="L22" s="19"/>
-    </row>
-    <row r="23" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M22" s="19"/>
+    </row>
+    <row r="23" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="19"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="19"/>
       <c r="D24" s="25" t="s">
         <v>10</v>
@@ -1667,9 +1730,9 @@
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="33"/>
-    </row>
-    <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="30"/>
+    </row>
+    <row r="25" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="19"/>
       <c r="D25" s="25" t="s">
         <v>11</v>
@@ -1677,32 +1740,34 @@
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="34"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="H25" s="31"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="19"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
-      <c r="D27" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="L27" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D27" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="L27" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
       <c r="D28" s="3"/>
@@ -1716,9 +1781,11 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
-      <c r="P28" s="5"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="3"/>
@@ -1732,9 +1799,11 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-      <c r="P29" s="5"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="5"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="3"/>
@@ -1748,9 +1817,11 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
-      <c r="P30" s="5"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="5"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="3"/>
@@ -1764,9 +1835,11 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
-      <c r="P31" s="5"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="5"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="3"/>
@@ -1780,9 +1853,11 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
-      <c r="P32" s="5"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="5"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="3"/>
@@ -1796,9 +1871,11 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
-      <c r="P33" s="5"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="5"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C34" s="19"/>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
@@ -1811,9 +1888,11 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
-      <c r="P34" s="5"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="5"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C35" s="19"/>
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
@@ -1826,9 +1905,11 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
-      <c r="P35" s="5"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="5"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C36" s="19"/>
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
@@ -1841,9 +1922,11 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
-      <c r="P36" s="5"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="5"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C37" s="19"/>
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
@@ -1856,9 +1939,11 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
-      <c r="P37" s="5"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="5"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C38" s="19"/>
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
@@ -1871,9 +1956,11 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
-      <c r="P38" s="5"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="5"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C39" s="19"/>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
@@ -1886,9 +1973,11 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
-      <c r="P39" s="5"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="5"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D40" s="3"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -1900,9 +1989,11 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
-      <c r="P40" s="5"/>
-    </row>
-    <row r="41" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="5"/>
+    </row>
+    <row r="41" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -1914,14 +2005,154 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
-      <c r="P41" s="8"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="8"/>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D43" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D44" s="3"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D45" s="3"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D46" s="3"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D47" s="3"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D48" s="3"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D49" s="3"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D50" s="3"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="3"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D52" s="3"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D53" s="3"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D54" s="3"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D55" s="3"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D56" s="3"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="6"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="L27:P27"/>
+  <mergeCells count="5">
+    <mergeCell ref="L27:R27"/>
     <mergeCell ref="D27:J27"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D43:J43"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
